--- a/timesheet_1.xlsx
+++ b/timesheet_1.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,11 +647,11 @@
       </c>
       <c r="G9" s="21" t="n">
         <f aca="false">SUM(D9:D11)*60+SUM(F9:F11)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9" s="22" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G9,60),"h",IF(MOD(G9,60)&lt;10,"0",""),MOD(G9,60),"m")</f>
-        <v>0h00m</v>
+        <v>0h30m</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
@@ -696,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="n">
@@ -704,11 +704,11 @@
       </c>
       <c r="G12" s="21" t="n">
         <f aca="false">SUM(D12:D14)*60+SUM(F12:F14)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H12" s="22" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G12,60),"h",IF(MOD(G12,60)&lt;10,"0",""),MOD(G12,60),"m")</f>
-        <v>0h00m</v>
+        <v>1h30m</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,7 +722,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
@@ -806,11 +806,11 @@
       </c>
       <c r="G18" s="30" t="n">
         <f aca="false">SUM(G9:G16)</f>
-        <v>405</v>
+        <v>525</v>
       </c>
       <c r="H18" s="31" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G18,60),"h",IF(MOD(G18,60)&lt;10,"0",""),MOD(G18,60),"m")</f>
-        <v>6h45m</v>
+        <v>8h45m</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/timesheet_1.xlsx
+++ b/timesheet_1.xlsx
@@ -553,8 +553,8 @@
   </sheetPr>
   <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -643,15 +643,15 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G9" s="21" t="n">
         <f aca="false">SUM(D9:D11)*60+SUM(F9:F11)</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H9" s="22" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G9,60),"h",IF(MOD(G9,60)&lt;10,"0",""),MOD(G9,60),"m")</f>
-        <v>0h30m</v>
+        <v>1h05m</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
@@ -704,11 +704,11 @@
       </c>
       <c r="G12" s="21" t="n">
         <f aca="false">SUM(D12:D14)*60+SUM(F12:F14)</f>
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H12" s="22" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G12,60),"h",IF(MOD(G12,60)&lt;10,"0",""),MOD(G12,60),"m")</f>
-        <v>1h30m</v>
+        <v>4h30m</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +737,7 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="n">
@@ -806,11 +806,11 @@
       </c>
       <c r="G18" s="30" t="n">
         <f aca="false">SUM(G9:G16)</f>
-        <v>525</v>
+        <v>740</v>
       </c>
       <c r="H18" s="31" t="str">
         <f aca="false">CONCATENATE(QUOTIENT(G18,60),"h",IF(MOD(G18,60)&lt;10,"0",""),MOD(G18,60),"m")</f>
-        <v>8h45m</v>
+        <v>12h20m</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
